--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Intellect Design Arena Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Intellect Design Arena Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -1,138 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Profit &amp; Loss account of Intellect Design Arena(in Rs. Cr.)</t>
-  </si>
-  <si>
-    <t>Revenue From Operations [Gross]</t>
-  </si>
-  <si>
-    <t>Revenue From Operations [Net]</t>
-  </si>
-  <si>
-    <t>Total Operating Revenues</t>
-  </si>
-  <si>
-    <t>Other Income</t>
-  </si>
-  <si>
-    <t>Total Revenue</t>
-  </si>
-  <si>
-    <t>Employee Benefit Expenses</t>
-  </si>
-  <si>
-    <t>Finance Costs</t>
-  </si>
-  <si>
-    <t>Depreciation And Amortisation Expenses</t>
-  </si>
-  <si>
-    <t>Other Expenses</t>
-  </si>
-  <si>
-    <t>Total Expenses</t>
-  </si>
-  <si>
-    <t>Profit/Loss Before Exceptional, ExtraOrdinary Items And Tax</t>
-  </si>
-  <si>
-    <t>Profit/Loss Before Tax</t>
-  </si>
-  <si>
-    <t>Current Tax</t>
-  </si>
-  <si>
-    <t>Deferred Tax</t>
-  </si>
-  <si>
-    <t>Total Tax Expenses</t>
-  </si>
-  <si>
-    <t>Profit/Loss After Tax And Before ExtraOrdinary Items</t>
-  </si>
-  <si>
-    <t>Profit/Loss From Continuing Operations</t>
-  </si>
-  <si>
-    <t>Profit/Loss For The Period</t>
-  </si>
-  <si>
-    <t>Basic EPS (Rs.)</t>
-  </si>
-  <si>
-    <t>Diluted EPS (Rs.)</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,729 +420,797 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Profit &amp; Loss account of Intellect Design Arena(in Rs. Cr.)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Revenue From Operations [Gross]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Revenue From Operations [Net]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operating Revenues</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Other Income</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Employee Benefit Expenses</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Finance Costs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Depreciation And Amortisation Expenses</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Total Expenses</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Profit/Loss Before Exceptional, ExtraOrdinary Items And Tax</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Profit/Loss Before Tax</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Current Tax</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Deferred Tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Total Tax Expenses</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Profit/Loss After Tax And Before ExtraOrdinary Items</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Profit/Loss From Continuing Operations</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Profit/Loss For The Period</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Basic EPS (Rs.)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Diluted EPS (Rs.)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mar 15</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>453.1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>453.1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>453.1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>22.04</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>475.14</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>433.02</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>7.23</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>17.06</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>98.84999999999999</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>548.9299999999999</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>-73.79000000000001</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>-73.79000000000001</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>45.43</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>-2.61</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>-2.61</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>-71.18000000000001</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>-71.18000000000001</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>-71.18000000000001</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>-7.12</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>-7.12</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar 16</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>546.11</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>546.11</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>546.11</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>17.57</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>563.67</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>416.53</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.1</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>19.05</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>106.06</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>541.73</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>21.94</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>21.94</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>4.06</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>-10.75</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>-10.75</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>32.69</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>32.69</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>32.69</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>3.25</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar 17</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>521.37</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>521.37</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>521.37</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>27.06</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>548.4400000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>442.2</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>10.52</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>22.61</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>129.26</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>604.58</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>-56.15</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>-56.15</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>45.43</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>-4.06</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>26.56</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>-56.15</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>-56.15</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>-56.15</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>-5.24</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>-5.24</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mar 18</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>681.1900000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>681.1900000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>681.1900000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>25.54</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>706.74</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>473.25</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>13.73</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>25.14</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>159.41</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>671.53</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>35.21</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>35.21</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>9.16</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>2.2</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>33</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>33</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>33</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>2.81</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>2.73</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mar 19</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>936.6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>936.6</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>936.6</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>56.16</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>992.76</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>625.6900000000001</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>11.4</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>34.94</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>177.93</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>849.96</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>142.8</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>142.8</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>34.14</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>-2.2</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>5.71</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>137.09</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>137.09</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>137.09</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>10.63</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>10.39</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mar 20</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>741.33</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>741.33</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>741.33</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>22.99</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>764.3200000000001</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>461.66</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>15.8</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>48.57</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>231.37</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>789.12</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>-24.81</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>-19.75</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>45.43</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>11.53</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>11.53</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>-31.28</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>-31.28</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>-31.28</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>-2.37</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>-2.37</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mar 21</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>1003.23</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>1003.23</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>1003.23</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>15.38</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>1018.61</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>493.77</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>7.5</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>50.01</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>192.01</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>796.03</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>222.58</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>222.58</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>51.41</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>-36.08</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>15.33</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>207.25</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>207.25</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>207.25</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>15.63</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>15.42</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mar 22</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>1266.77</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>1266.77</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>1266.77</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>24.59</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>1291.36</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>558.25</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>2.96</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>69.03</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>396.74</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>1026.98</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>264.38</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>264.38</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>45.7</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>19.59</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>62.29</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>202.08</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>202.08</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>202.08</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>15.19</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>14.55</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mar 23</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>1470.11</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>1470.11</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>1470.11</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>44.35</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>1514.46</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>713.45</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>2.19</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>80.06999999999999</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>516.4400000000001</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>1312.16</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>202.3</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>202.3</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>70.27</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>-1.97</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>68.3</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>133.99</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>133.99</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>133.99</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>9.98</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>9.640000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mar 24</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>1678.94</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>1678.94</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>1678.94</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>56.31</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>1735.25</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>839.54</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.83</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>89.25</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>540.52</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>1470.14</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>265.11</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>252.6</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>103.24</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>-16.24</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>87</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>165.6</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>165.6</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>165.6</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>12.23</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>11.78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>